--- a/Data/Output.xlsx
+++ b/Data/Output.xlsx
@@ -6,12 +6,11 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Germany" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Mexico" sheetId="5" r:id="rId5"/>
-    <x:sheet name="Netherlands" sheetId="7" r:id="rId7"/>
-    <x:sheet name="New Zealand" sheetId="8" r:id="rId8"/>
-    <x:sheet name="Nigeria" sheetId="9" r:id="rId9"/>
-    <x:sheet name="Russia" sheetId="10" r:id="rId10"/>
+    <x:sheet name="South Africa" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Spain" sheetId="5" r:id="rId5"/>
+    <x:sheet name="SriLanka" sheetId="7" r:id="rId7"/>
+    <x:sheet name="Swizerland" sheetId="8" r:id="rId8"/>
+    <x:sheet name="United Kingdom" sheetId="9" r:id="rId9"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -19,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <x:si>
     <x:t>CustomerName</x:t>
   </x:si>
@@ -27,70 +26,127 @@
     <x:t>Number of Location</x:t>
   </x:si>
   <x:si>
+    <x:t>ARUNACHAL PRADESH RURAL BANK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CENTRAL BANK OF INDIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UNION BANK OF INDIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANDRA PRAGHATHI GRAMEENA BANK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MAHARASHTRA GRAMIN BANK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUNJAB NATIONAL BANK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UCO BANK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUNJAB &amp; SIND BANK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MAHINDRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROLLS ROYCE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NISSAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BMW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HYUNDAI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RENAULT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BENZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SCODA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LAND ROVER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MIZORAM RURAL BANK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHAITANYA GODAVARI GRAMEENA BANK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MEGHALAYA RURAL BANK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INDIAN BANK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BANK OF BARODA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MADHYA PRADESH GRAMIN BANK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BANK OF MAHARASHTRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BARODA RAJASTHAN KSHETRIYA GRAMIN BANK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>STATE BANK OF INDIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ELLAQUAI DEHATI BANK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CANARA BANK</x:t>
+  </x:si>
+  <x:si>
     <x:t>ANDHRA PRADESH GRAMEENA VIKAS BANK</x:t>
   </x:si>
   <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUNJAB NATIONAL BANK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHAITANYA GODAVARI GRAMEENA BANK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PUNJAB &amp; SIND BANK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ARUNACHAL PRADESH RURAL BANK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MAHARASHTRA GRAMIN BANK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CENTRAL BANK OF INDIA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UCO BANK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ANDRA PRAGHATHI GRAMEENA BANK</x:t>
-  </x:si>
-  <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>CANARA BANK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INDIAN BANK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>STATE BANK OF INDIA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BANK OF MAHARASHTRA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MEGHALAYA RURAL BANK</x:t>
+    <x:t>MANIPUR RURAL BANK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KARNATAKA GRAMIN BANK</x:t>
   </x:si>
   <x:si>
     <x:t>MADHYANCHAL GRAMIN BANK</x:t>
@@ -102,31 +158,43 @@
     <x:t>NAGALAND RURAL BANK</x:t>
   </x:si>
   <x:si>
-    <x:t>MIZORAM RURAL BANK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INDIAN OVERSEAS BANK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MANIPUR RURAL BANK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LAND ROVER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SCODA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RENAULT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UNION BANK OF INDIA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BANK OF BARODA</x:t>
+    <x:t>KERALA GRAMIN BANK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>J &amp; K GRAMEEN BANK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BARODA GUJARAT GRAMIN BANK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BANGIYA GRAMIN VIKASH BANK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DAKSHIN BIHAR GRAMIN BANK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HIMACHAL PRADESH GRAMIN BANK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHHATTISGARH RAJYA GRAMIN BANK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ARYAVART BANK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARUTHI SUZUKI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KARNATAKA VIKAS GRAMEENA BANK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASSAM GRAMIN VIKASH BANK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JHARKHAND RAJYA GRAMIN BANK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BARODA UP BANK</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -477,7 +545,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B24"/>
+  <x:dimension ref="A1:B44"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -528,31 +596,31 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
@@ -568,31 +636,31 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:2">
       <x:c r="A12" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:2">
       <x:c r="A13" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:2">
       <x:c r="A14" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:2">
@@ -600,7 +668,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:2">
@@ -608,7 +676,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:2">
@@ -616,7 +684,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:2">
@@ -624,7 +692,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:2">
@@ -632,7 +700,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:2">
@@ -640,7 +708,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:2">
@@ -648,30 +716,190 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:2">
       <x:c r="A22" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:2">
       <x:c r="A23" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:2">
       <x:c r="A24" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:2">
+      <x:c r="A25" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B24" s="0" t="s">
+      <x:c r="B25" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:2">
+      <x:c r="A26" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:2">
+      <x:c r="A27" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:2">
+      <x:c r="A28" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:2">
+      <x:c r="A29" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:2">
+      <x:c r="A30" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:2">
+      <x:c r="A31" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:2">
+      <x:c r="A32" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:2">
+      <x:c r="A33" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:2">
+      <x:c r="A34" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:2">
+      <x:c r="A35" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:2">
+      <x:c r="A36" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:2">
+      <x:c r="A37" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:2">
+      <x:c r="A38" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:2">
+      <x:c r="A39" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:2">
+      <x:c r="A40" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:2">
+      <x:c r="A41" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:2">
+      <x:c r="A42" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:2">
+      <x:c r="A43" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:2">
+      <x:c r="A44" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
@@ -689,7 +917,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B22"/>
+  <x:dimension ref="A1:B45"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -708,7 +936,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
@@ -716,7 +944,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
@@ -729,42 +957,42 @@
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
@@ -772,31 +1000,31 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2">
       <x:c r="A11" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:2">
       <x:c r="A12" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:2">
       <x:c r="A13" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:2">
@@ -804,7 +1032,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:2">
@@ -812,7 +1040,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:2">
@@ -820,28 +1048,28 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:2">
       <x:c r="A17" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:2">
       <x:c r="A18" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:2">
       <x:c r="A19" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>9</x:v>
@@ -849,26 +1077,210 @@
     </x:row>
     <x:row r="20" spans="1:2">
       <x:c r="A20" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:2">
       <x:c r="A21" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:2">
       <x:c r="A22" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:2">
+      <x:c r="A23" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:2">
+      <x:c r="A24" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:2">
+      <x:c r="A25" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:2">
+      <x:c r="A26" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:2">
+      <x:c r="A27" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:2">
+      <x:c r="A28" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:2">
+      <x:c r="A29" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:2">
+      <x:c r="A30" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:2">
+      <x:c r="A31" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:2">
+      <x:c r="A32" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:2">
+      <x:c r="A33" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:2">
+      <x:c r="A34" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:2">
+      <x:c r="A35" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:2">
+      <x:c r="A36" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:2">
+      <x:c r="A37" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:2">
+      <x:c r="A38" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:2">
+      <x:c r="A39" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:2">
+      <x:c r="A40" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:2">
+      <x:c r="A41" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:2">
+      <x:c r="A42" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:2">
+      <x:c r="A43" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:2">
+      <x:c r="A44" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:2">
+      <x:c r="A45" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>13</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -885,7 +1297,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B23"/>
+  <x:dimension ref="A1:B45"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -901,58 +1313,58 @@
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
@@ -960,60 +1372,60 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
       <x:c r="A10" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2">
       <x:c r="A11" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:2">
       <x:c r="A12" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:2">
       <x:c r="A13" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:2">
       <x:c r="A14" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:2">
       <x:c r="A15" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:2">
       <x:c r="A16" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>3</x:v>
@@ -1021,18 +1433,18 @@
     </x:row>
     <x:row r="17" spans="1:2">
       <x:c r="A17" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:2">
       <x:c r="A18" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:2">
@@ -1040,7 +1452,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:2">
@@ -1048,31 +1460,207 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:2">
       <x:c r="A21" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:2">
       <x:c r="A22" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:2">
       <x:c r="A23" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:2">
+      <x:c r="A24" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B23" s="0" t="s">
+      <x:c r="B24" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:2">
+      <x:c r="A25" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:2">
+      <x:c r="A26" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:2">
+      <x:c r="A27" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:2">
+      <x:c r="A28" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:2">
+      <x:c r="A29" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:2">
+      <x:c r="A30" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:2">
+      <x:c r="A31" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:2">
+      <x:c r="A32" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:2">
+      <x:c r="A33" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:2">
+      <x:c r="A34" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:2">
+      <x:c r="A35" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:2">
+      <x:c r="A36" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:2">
+      <x:c r="A37" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:2">
+      <x:c r="A38" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:2">
+      <x:c r="A39" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
         <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:2">
+      <x:c r="A40" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:2">
+      <x:c r="A41" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:2">
+      <x:c r="A42" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:2">
+      <x:c r="A43" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:2">
+      <x:c r="A44" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:2">
+      <x:c r="A45" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1089,7 +1677,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B22"/>
+  <x:dimension ref="A1:B45"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1108,7 +1696,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
@@ -1116,7 +1704,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
@@ -1124,7 +1712,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
@@ -1132,52 +1720,52 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
       <x:c r="A10" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2">
       <x:c r="A11" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>9</x:v>
@@ -1185,42 +1773,42 @@
     </x:row>
     <x:row r="12" spans="1:2">
       <x:c r="A12" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:2">
       <x:c r="A13" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:2">
       <x:c r="A14" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:2">
       <x:c r="A15" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:2">
       <x:c r="A16" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:2">
@@ -1228,7 +1816,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:2">
@@ -1236,7 +1824,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:2">
@@ -1244,7 +1832,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:2">
@@ -1252,23 +1840,207 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:2">
       <x:c r="A21" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:2">
       <x:c r="A22" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:2">
+      <x:c r="A23" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B22" s="0" t="s">
-        <x:v>9</x:v>
+      <x:c r="B23" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:2">
+      <x:c r="A24" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:2">
+      <x:c r="A25" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:2">
+      <x:c r="A26" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:2">
+      <x:c r="A27" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:2">
+      <x:c r="A28" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:2">
+      <x:c r="A29" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:2">
+      <x:c r="A30" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:2">
+      <x:c r="A31" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:2">
+      <x:c r="A32" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:2">
+      <x:c r="A33" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:2">
+      <x:c r="A34" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:2">
+      <x:c r="A35" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:2">
+      <x:c r="A36" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:2">
+      <x:c r="A37" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:2">
+      <x:c r="A38" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:2">
+      <x:c r="A39" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:2">
+      <x:c r="A40" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:2">
+      <x:c r="A41" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:2">
+      <x:c r="A42" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:2">
+      <x:c r="A43" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:2">
+      <x:c r="A44" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:2">
+      <x:c r="A45" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>19</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1285,7 +2057,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B24"/>
+  <x:dimension ref="A1:B40"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1304,219 +2076,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:2">
-      <x:c r="A3" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:2">
-      <x:c r="A4" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:2">
-      <x:c r="A5" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:2">
-      <x:c r="A6" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:2">
-      <x:c r="A7" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:2">
-      <x:c r="A8" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:2">
-      <x:c r="A9" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:2">
-      <x:c r="A10" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:2">
-      <x:c r="A11" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:2">
-      <x:c r="A12" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:2">
-      <x:c r="A13" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:2">
-      <x:c r="A14" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:2">
-      <x:c r="A15" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:2">
-      <x:c r="A16" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B16" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:2">
-      <x:c r="A17" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B17" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:2">
-      <x:c r="A18" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B18" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:2">
-      <x:c r="A19" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B19" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:2">
-      <x:c r="A20" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B20" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:2">
-      <x:c r="A21" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="B21" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:2">
-      <x:c r="A22" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B22" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:2">
-      <x:c r="A23" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B23" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:2">
-      <x:c r="A24" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B24" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:B24"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:2">
-      <x:c r="A1" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:2">
-      <x:c r="A2" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
@@ -1524,7 +2084,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
@@ -1532,7 +2092,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
@@ -1540,20 +2100,20 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>9</x:v>
@@ -1561,95 +2121,95 @@
     </x:row>
     <x:row r="8" spans="1:2">
       <x:c r="A8" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
       <x:c r="A10" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2">
       <x:c r="A11" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:2">
       <x:c r="A12" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:2">
       <x:c r="A13" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:2">
       <x:c r="A14" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:2">
       <x:c r="A15" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:2">
       <x:c r="A16" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:2">
       <x:c r="A17" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:2">
       <x:c r="A18" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:2">
       <x:c r="A19" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>9</x:v>
@@ -1657,23 +2217,23 @@
     </x:row>
     <x:row r="20" spans="1:2">
       <x:c r="A20" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:2">
       <x:c r="A21" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:2">
       <x:c r="A22" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>9</x:v>
@@ -1681,18 +2241,146 @@
     </x:row>
     <x:row r="23" spans="1:2">
       <x:c r="A23" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:2">
       <x:c r="A24" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:2">
+      <x:c r="A25" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:2">
+      <x:c r="A26" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:2">
+      <x:c r="A27" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:2">
+      <x:c r="A28" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:2">
+      <x:c r="A29" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:2">
+      <x:c r="A30" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:2">
+      <x:c r="A31" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:2">
+      <x:c r="A32" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:2">
+      <x:c r="A33" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:2">
+      <x:c r="A34" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:2">
+      <x:c r="A35" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:2">
+      <x:c r="A36" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:2">
+      <x:c r="A37" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:2">
+      <x:c r="A38" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:2">
+      <x:c r="A39" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:2">
+      <x:c r="A40" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>17</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
